--- a/formats/excel/Formats RSA MED 18.xlsx
+++ b/formats/excel/Formats RSA MED 18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>position</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Top transcodage UCD13 auto</t>
+  </si>
+  <si>
+    <t>INDICATION</t>
+  </si>
+  <si>
+    <t>Code indication des spécialités pharmaceutiques inscrites sur la liste en sus</t>
   </si>
 </sst>
 </file>
@@ -138,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,64 +159,60 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,8 +234,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,71 +279,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,69 +516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,8 +537,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,159 +583,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,15 +1083,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="66.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1157,7 +1149,7 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>C3+A3-A4</f>
         <v>0</v>
       </c>
@@ -1329,7 +1321,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1410,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>C15+A15-A16</f>
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -1431,11 +1423,32 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f>C16+A16-A17</f>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f>C17+A17-A18</f>
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
